--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1522307.860006531</v>
+        <v>1519912.204001348</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504416</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>238.0617161844016</v>
       </c>
       <c r="I2" t="n">
-        <v>54.16058563975407</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906499</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833737</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,7 +823,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>85.07497845245871</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +832,10 @@
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>74.03593649473798</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>226.9017564263113</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -911,7 +911,7 @@
         <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>18.51469624426484</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>64.83556544767973</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>276.3412220966738</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>51.07596745382436</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>34.54641436538821</v>
       </c>
       <c r="G8" t="n">
-        <v>235.0768521847863</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>60.86538463674658</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>181.0919561226081</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>69.82863813027228</v>
+        <v>54.32649042089713</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>174.7683347992597</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>7.069540131684477</v>
       </c>
     </row>
     <row r="17">
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>20.38427178198018</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>90.14863908058098</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.831980181939</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>53.08838020946047</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>110.0177171766856</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890389</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.3849150459344</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856647</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158605</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703253</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.83255574579487</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960846</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>853.0930911492846</v>
+        <v>1863.758352609791</v>
       </c>
       <c r="C2" t="n">
-        <v>484.1305742088729</v>
+        <v>1863.758352609791</v>
       </c>
       <c r="D2" t="n">
-        <v>125.8648756021224</v>
+        <v>1505.492654003041</v>
       </c>
       <c r="E2" t="n">
-        <v>125.8648756021224</v>
+        <v>1119.704401404797</v>
       </c>
       <c r="F2" t="n">
-        <v>118.9193748529189</v>
+        <v>708.7184966151892</v>
       </c>
       <c r="G2" t="n">
-        <v>106.5075175851976</v>
+        <v>292.2662353070638</v>
       </c>
       <c r="H2" t="n">
-        <v>106.5075175851976</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073759</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>455.1003844723707</v>
+        <v>605.2571586872677</v>
       </c>
       <c r="L2" t="n">
-        <v>692.723165690562</v>
+        <v>842.8799399054598</v>
       </c>
       <c r="M2" t="n">
-        <v>988.7937322481642</v>
+        <v>1138.950506463063</v>
       </c>
       <c r="N2" t="n">
-        <v>1629.816941868058</v>
+        <v>1444.425612698648</v>
       </c>
       <c r="O2" t="n">
-        <v>1904.933161184692</v>
+        <v>1719.541832015283</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394155</v>
+        <v>2238.426880394154</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466515</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459332</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V2" t="n">
-        <v>1982.600918459332</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W2" t="n">
-        <v>1629.832263189218</v>
+        <v>2237.224110870871</v>
       </c>
       <c r="X2" t="n">
-        <v>1629.832263189218</v>
+        <v>1863.758352609791</v>
       </c>
       <c r="Y2" t="n">
-        <v>1239.692931213406</v>
+        <v>1863.758352609791</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884145</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093824</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369552</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496867</v>
+        <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>1000.641447200246</v>
+        <v>1161.911999152943</v>
       </c>
       <c r="M3" t="n">
-        <v>1264.580978695733</v>
+        <v>1425.851530648431</v>
       </c>
       <c r="N3" t="n">
-        <v>1905.604188315627</v>
+        <v>1798.302562220578</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067085</v>
+        <v>2037.107513972037</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020795</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4440,10 +4440,10 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>908.761265387351</v>
+        <v>887.9374833778942</v>
       </c>
       <c r="C4" t="n">
-        <v>739.8250824594442</v>
+        <v>719.0013004499873</v>
       </c>
       <c r="D4" t="n">
-        <v>589.7084430471084</v>
+        <v>568.8846610376515</v>
       </c>
       <c r="E4" t="n">
-        <v>441.7953494647153</v>
+        <v>482.9503393685013</v>
       </c>
       <c r="F4" t="n">
-        <v>294.9054019668049</v>
+        <v>336.060391870591</v>
       </c>
       <c r="G4" t="n">
-        <v>126.5836295599288</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.034527330184</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159871</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341311</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666712</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092719</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357427</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993471</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361121</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361121</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361121</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361121</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="W4" t="n">
-        <v>1311.202309361121</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="X4" t="n">
-        <v>1311.202309361121</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="Y4" t="n">
-        <v>1090.409730217591</v>
+        <v>887.9374833778942</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2075.676253584918</v>
+        <v>2360.799072781075</v>
       </c>
       <c r="C5" t="n">
-        <v>1706.713736644507</v>
+        <v>1991.836555840663</v>
       </c>
       <c r="D5" t="n">
-        <v>1348.448038037756</v>
+        <v>1633.570857233913</v>
       </c>
       <c r="E5" t="n">
-        <v>962.659785439512</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="F5" t="n">
-        <v>551.6738806499045</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G5" t="n">
-        <v>135.9920388500365</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
         <v>117.2903254719912</v>
@@ -4568,19 +4568,19 @@
         <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135514</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.676253584918</v>
+        <v>2589.992766140986</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431335</v>
+        <v>426.7768722128335</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594483</v>
+        <v>1067.800081832727</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951774</v>
+        <v>1434.105971325053</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1824.515532650795</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>2159.444213366326</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2408.920941231345</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.3901607280909</v>
+        <v>538.8288664011729</v>
       </c>
       <c r="C7" t="n">
-        <v>497.453977800184</v>
+        <v>369.8926834732661</v>
       </c>
       <c r="D7" t="n">
-        <v>347.3373383878483</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="E7" t="n">
-        <v>347.3373383878483</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="F7" t="n">
-        <v>200.4473908899379</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G7" t="n">
-        <v>200.4473908899379</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
         <v>51.79985532281972</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916872</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T7" t="n">
-        <v>1348.412641916872</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="U7" t="n">
-        <v>1348.412641916872</v>
+        <v>948.46688212943</v>
       </c>
       <c r="V7" t="n">
-        <v>1348.412641916872</v>
+        <v>948.46688212943</v>
       </c>
       <c r="W7" t="n">
-        <v>1296.820755599878</v>
+        <v>948.46688212943</v>
       </c>
       <c r="X7" t="n">
-        <v>1068.831204701861</v>
+        <v>720.4773312314127</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.0386255583306</v>
+        <v>720.4773312314127</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1813.253594101052</v>
+        <v>502.3770651685344</v>
       </c>
       <c r="C8" t="n">
-        <v>1444.29107716064</v>
+        <v>502.3770651685344</v>
       </c>
       <c r="D8" t="n">
-        <v>1086.02537855389</v>
+        <v>502.3770651685344</v>
       </c>
       <c r="E8" t="n">
-        <v>700.2371259556458</v>
+        <v>502.3770651685344</v>
       </c>
       <c r="F8" t="n">
-        <v>289.2512211660382</v>
+        <v>467.4816971226878</v>
       </c>
       <c r="G8" t="n">
         <v>51.79985532281972</v>
@@ -4805,13 +4805,13 @@
         <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
         <v>1673.478115539971</v>
@@ -4835,19 +4835,19 @@
         <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2336.413538083233</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140986</v>
+        <v>2005.350650739662</v>
       </c>
       <c r="W8" t="n">
-        <v>2589.992766140986</v>
+        <v>1652.581995469548</v>
       </c>
       <c r="X8" t="n">
-        <v>2589.992766140986</v>
+        <v>1279.116237208468</v>
       </c>
       <c r="Y8" t="n">
-        <v>2199.853434165174</v>
+        <v>888.9769052326562</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258287</v>
+        <v>563.7673318682815</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421434</v>
+        <v>861.0792809845962</v>
       </c>
       <c r="M9" t="n">
-        <v>965.5645858344687</v>
+        <v>1227.385170476922</v>
       </c>
       <c r="N9" t="n">
-        <v>1554.712543231644</v>
+        <v>1617.794731802664</v>
       </c>
       <c r="O9" t="n">
-        <v>2195.735752851538</v>
+        <v>1952.723412518195</v>
       </c>
       <c r="P9" t="n">
         <v>2445.212480716556</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>727.1359052451301</v>
+        <v>833.6319074814764</v>
       </c>
       <c r="C10" t="n">
-        <v>558.1997223172232</v>
+        <v>664.6957245535696</v>
       </c>
       <c r="D10" t="n">
-        <v>408.0830829048874</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E10" t="n">
-        <v>260.1699893224943</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F10" t="n">
-        <v>113.2800418245839</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G10" t="n">
         <v>51.79985532281972</v>
@@ -4999,13 +4999,13 @@
         <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>1357.566500116917</v>
+        <v>1464.062502353264</v>
       </c>
       <c r="X10" t="n">
-        <v>1129.5769492189</v>
+        <v>1236.072951455246</v>
       </c>
       <c r="Y10" t="n">
-        <v>908.7843700753698</v>
+        <v>1015.280372311716</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,28 +5051,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,19 +5355,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1905.631426649717</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5522,16 +5522,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>869.9745311434716</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>701.0383482155647</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>550.921708803229</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>403.0086152208358</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>256.1186677229255</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>256.1186677229255</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>114.4068365651236</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2106.003314093041</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2106.003314093041</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>1851.318825887154</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.901655850193</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>983.355603809822</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>513.8536007400712</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6139,7 +6139,7 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6206,22 +6206,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,16 +6233,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>700.7543264856228</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138394</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>700.7543264856228</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6464,16 +6464,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6695,10 +6695,10 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7023,13 +7023,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708882</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429812</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429812</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429812</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429812</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578612</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000592</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7138,7 +7138,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011279</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400699</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.917417812163</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.917417812163</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.917417812163</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.917417812163</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832661</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487566</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510507</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854705</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648818</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611857</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138397</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703096</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588918</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473703</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7828,28 +7828,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>151.6735093079757</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,13 +7988,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>338.937478165969</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>134.5347393134948</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>207.9407978764941</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945065</v>
+        <v>87.99713246344908</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740404</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>347.1830914177568</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>36.65812069213285</v>
       </c>
       <c r="R6" t="n">
         <v>20.1843750390658</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,13 +8541,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>200.7458546176089</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>309.1863928326898</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>245.46701043772</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>110.003342051665</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>211.5151132204103</v>
       </c>
     </row>
     <row r="17">
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>60.88156453658534</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>127.2568112467073</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>114.1584408891674</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>35.40333084624569</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.199738306160356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>138.4949402405088</v>
       </c>
     </row>
     <row r="38">
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194358</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>139.9994244361424</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>138.4949402405064</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>957321.6646846293</v>
+        <v>957321.6646846292</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>913529.420336368</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>913529.4203363681</v>
+        <v>913529.420336368</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>913529.4203363679</v>
+        <v>913529.4203363681</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>913529.4203363679</v>
+        <v>913529.420336368</v>
       </c>
     </row>
     <row r="10">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651771</v>
@@ -26323,7 +26323,7 @@
         <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062537</v>
@@ -26335,13 +26335,13 @@
         <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062536</v>
@@ -26350,10 +26350,10 @@
         <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753976</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898933</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.867745751</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.83881516</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26424,40 +26424,40 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695059</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695054</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699087</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-675662.7434223715</v>
+        <v>-675662.7434223724</v>
       </c>
       <c r="C6" t="n">
-        <v>117838.9022885262</v>
+        <v>117838.9022885271</v>
       </c>
       <c r="D6" t="n">
-        <v>290603.2620784195</v>
+        <v>290603.2620784196</v>
       </c>
       <c r="E6" t="n">
-        <v>-103832.2532950992</v>
+        <v>-103866.991220535</v>
       </c>
       <c r="F6" t="n">
-        <v>397056.6144506515</v>
+        <v>397021.8765252157</v>
       </c>
       <c r="G6" t="n">
-        <v>397056.6144506515</v>
+        <v>397021.8765252158</v>
       </c>
       <c r="H6" t="n">
-        <v>397056.6144506516</v>
+        <v>397021.876525216</v>
       </c>
       <c r="I6" t="n">
-        <v>397056.6144506514</v>
+        <v>397021.8765252157</v>
       </c>
       <c r="J6" t="n">
-        <v>227642.5976246035</v>
+        <v>227607.8596991677</v>
       </c>
       <c r="K6" t="n">
-        <v>397056.6144506515</v>
+        <v>397021.8765252158</v>
       </c>
       <c r="L6" t="n">
-        <v>397056.6144506515</v>
+        <v>397021.8765252157</v>
       </c>
       <c r="M6" t="n">
-        <v>266172.1575464162</v>
+        <v>266137.4196209805</v>
       </c>
       <c r="N6" t="n">
-        <v>397056.6144506515</v>
+        <v>397021.8765252157</v>
       </c>
       <c r="O6" t="n">
-        <v>397056.6144506513</v>
+        <v>397021.8765252159</v>
       </c>
       <c r="P6" t="n">
-        <v>397056.6144506516</v>
+        <v>397021.8765252156</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498445</v>
@@ -26796,7 +26796,7 @@
         <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522348</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,10 +26996,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>70.53572926510964</v>
       </c>
       <c r="I2" t="n">
-        <v>40.07956191909766</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>61.35898419411046</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>76.16695116918252</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994863</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519699</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>155.8320852371693</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>282.2715910041949</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,13 +27783,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>9.885377123031844</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>235.4470308827666</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>372.3296313763232</v>
       </c>
       <c r="G8" t="n">
-        <v>176.4481711970831</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
@@ -27907,16 +27907,16 @@
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>105.4310422139829</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>105.4310422139829</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.571301715478522e-13</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29496,7 +29496,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-1.571301715478522e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090891</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625584</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066895</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611369</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014937</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682851</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658683</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485895</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775956</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330904</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325346</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282124</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494788</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072712</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674104</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743148</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307771</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859907</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261556</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.262332560511</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911972</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240732</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257154</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433295</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028909</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969222</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993425</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364542</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651427</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351906</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777202</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855589</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711385</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600313</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932505</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840044</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.15908051844</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351507</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311391</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519961</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567077</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965187</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189612</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>188.4731159523455</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,10 +32561,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,13 +33272,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33743,16 +33743,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>573.8098963904297</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>364.3208035245826</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,16 +34442,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>364.3208035245826</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.944966752077</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161564</v>
+        <v>315.1028144241328</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315064</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410124</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352464</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269027</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>336.8623426358208</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185456</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138492</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597328</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643752</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>419.6487506571309</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691789</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352464</v>
+        <v>376.2131632041896</v>
       </c>
       <c r="O3" t="n">
-        <v>241.217122981271</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289993</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527185</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883111</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452556</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203474</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550911</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.090032063233</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324796</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000442</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944467</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671845</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="M6" t="n">
         <v>370.0059489821469</v>
@@ -35033,7 +35033,7 @@
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>154.6878069218951</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174896</v>
@@ -35261,13 +35261,13 @@
         <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>595.0989468658335</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>647.4981915352464</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>497.4637052508702</v>
       </c>
       <c r="Q9" t="n">
         <v>118.0296862297622</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>265.4651371077849</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>45.87687150790109</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,10 +36209,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,13 +36920,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37391,16 +37391,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>431.6758624684114</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066232</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>224.3390294385611</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010463</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>224.3390294385611</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
